--- a/utils/results_full.xlsx
+++ b/utils/results_full.xlsx
@@ -919,13 +919,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
+  <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:K75"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E36" activeCellId="0" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -975,7 +975,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1095,7 +1095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" s="6" customFormat="true" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" s="6" customFormat="true" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1455,7 +1455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>6</v>
       </c>
@@ -1695,7 +1695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>6</v>
       </c>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>6</v>
       </c>
@@ -1935,7 +1935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>6</v>
       </c>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>6</v>
       </c>
@@ -2175,7 +2175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>6</v>
       </c>
@@ -2295,7 +2295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
         <v>6</v>
       </c>
@@ -2415,7 +2415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
         <v>7</v>
       </c>
@@ -2535,7 +2535,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
         <v>7</v>
       </c>
@@ -2655,7 +2655,7 @@
         <v>0.786764705882353</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
         <v>7</v>
       </c>
@@ -2775,7 +2775,7 @@
         <v>0.720588235294118</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
         <v>7</v>
       </c>
@@ -2895,7 +2895,7 @@
         <v>0.705882352941177</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
         <v>7</v>
       </c>
@@ -3015,7 +3015,7 @@
         <v>0.786764705882353</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
         <v>7</v>
       </c>
@@ -3135,7 +3135,7 @@
         <v>0.772058823529412</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
         <v>7</v>
       </c>
@@ -3255,7 +3255,7 @@
         <v>0.691176470588235</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
         <v>7</v>
       </c>
@@ -3375,7 +3375,7 @@
         <v>0.713235294117647</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
         <v>7</v>
       </c>
@@ -3495,7 +3495,7 @@
         <v>0.794117647058824</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
         <v>7</v>
       </c>
@@ -3615,7 +3615,7 @@
         <v>0.764705882352941</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
         <v>7</v>
       </c>
@@ -3735,7 +3735,7 @@
         <v>0.691176470588235</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
         <v>7</v>
       </c>
@@ -3874,7 +3874,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K75"/>
+  <autoFilter ref="A1:K75">
+    <filterColumn colId="3">
+      <filters blank="1">
+        <filter val="0.01"/>
+        <filter val="0.1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <conditionalFormatting sqref="E1:E73">
     <cfRule type="colorScale" priority="2">
       <colorScale>
